--- a/static/企业信息导入模板.xlsx
+++ b/static/企业信息导入模板.xlsx
@@ -539,6 +539,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>经营范围详细分类</t>
     </r>
     <r>
@@ -556,7 +562,19 @@
     <t>企业主要业务范围</t>
   </si>
   <si>
-    <t>管理机构</t>
+    <r>
+      <t>管理机构</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
     <t>具体管理部门</t>
@@ -913,12 +931,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="hh:mm"/>
+    <numFmt numFmtId="176" formatCode="hh:mm"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -956,9 +974,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,16 +1026,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -994,33 +1041,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1031,51 +1060,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1091,7 +1078,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1099,6 +1109,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1141,73 +1159,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,116 +1343,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1368,15 +1386,26 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1398,11 +1427,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1452,6 +1485,26 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -1541,47 +1594,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1589,8 +1636,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1613,19 +1660,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1645,11 +1681,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1661,10 +1727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1673,134 +1739,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1829,22 +1895,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1856,36 +1922,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1895,57 +1955,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="19" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2272,16 +2338,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="36" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="42" customWidth="1"/>
     <col min="3" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
@@ -2309,175 +2375,111 @@
     <col min="30" max="30" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="35" customFormat="1" ht="16.5" spans="1:30">
-      <c r="A1" s="37" t="s">
+    <row r="1" s="41" customFormat="1" ht="16.5" spans="1:30">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="W1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="X1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="44" t="s">
+      <c r="Y1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="Z1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AA1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AB1" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="39" t="s">
+      <c r="AC1" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="39" t="s">
+      <c r="AD1" s="45" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:30">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:30">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="43,44,45,46,47" sqref="Z2 Z3 Z4:Z1048576">
-      <formula1>"43,44,45,46,47"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3 F4:F1048576 L2:L3 L4:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576 L2:L1048576">
       <formula1>"310000,310112,310113,310114,310115,310116,310117,310118,310151,310120"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3 H4:H1048576 I2:I3 I4:I1048576 J2:J3 J4:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576 I2:I1048576 J2:J1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3 K4:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
       <formula1>"1,2,3,4,11,20"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="43,44,45,46,47" sqref="Z2:Z1048576">
+      <formula1>"43,44,45,46,47"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2491,8 +2493,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" customHeight="1" outlineLevelCol="7"/>
@@ -2591,544 +2593,544 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="11"/>
       <c r="E9"/>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>38</v>
       </c>
       <c r="G9"/>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="15">
         <v>310100</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="17">
         <v>31010001</v>
       </c>
       <c r="E10"/>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="18" t="s">
         <v>42</v>
       </c>
       <c r="G10"/>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="23">
         <v>31010002</v>
       </c>
       <c r="E11"/>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G11"/>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="27">
         <v>31010003</v>
       </c>
       <c r="E12"/>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G12"/>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="26"/>
+      <c r="A13" s="28"/>
       <c r="E13"/>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="18" t="s">
         <v>50</v>
       </c>
       <c r="G13"/>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="30">
         <v>310112</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
       <c r="E14"/>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="18" t="s">
         <v>53</v>
       </c>
       <c r="G14"/>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="26"/>
+      <c r="A15" s="28"/>
       <c r="E15"/>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="18" t="s">
         <v>55</v>
       </c>
       <c r="G15"/>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="15">
         <v>310113</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="17">
         <v>31011301</v>
       </c>
       <c r="E16"/>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="18" t="s">
         <v>59</v>
       </c>
       <c r="G16"/>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="23">
         <v>31011302</v>
       </c>
       <c r="E17"/>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="18" t="s">
         <v>62</v>
       </c>
       <c r="G17"/>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:8">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="27">
         <v>31011303</v>
       </c>
       <c r="E18"/>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="18" t="s">
         <v>65</v>
       </c>
       <c r="G18"/>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="26"/>
+      <c r="A19" s="28"/>
       <c r="E19"/>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="33" t="s">
         <v>67</v>
       </c>
       <c r="G19"/>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:8">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="30">
         <v>310114</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:8">
-      <c r="A21" s="26"/>
+      <c r="A21" s="28"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="15">
         <v>310115</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="17">
         <v>31011501</v>
       </c>
       <c r="E22"/>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G22"/>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="19" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="27">
         <v>31011502</v>
       </c>
       <c r="E23"/>
-      <c r="F23" t="s">
+      <c r="F23" s="34" t="s">
         <v>77</v>
       </c>
       <c r="G23"/>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="19" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="26"/>
+      <c r="A24" s="28"/>
       <c r="E24"/>
-      <c r="F24" t="s">
+      <c r="F24" s="34" t="s">
         <v>79</v>
       </c>
       <c r="G24"/>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:8">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="15">
         <v>310116</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="17">
         <v>31011601</v>
       </c>
       <c r="E25"/>
-      <c r="F25" t="s">
+      <c r="F25" s="34" t="s">
         <v>83</v>
       </c>
       <c r="G25"/>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="23">
         <v>31011602</v>
       </c>
       <c r="E26"/>
-      <c r="F26" t="s">
+      <c r="F26" s="34" t="s">
         <v>86</v>
       </c>
       <c r="G26"/>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="23">
         <v>31011603</v>
       </c>
       <c r="E27"/>
-      <c r="F27" t="s">
+      <c r="F27" s="35" t="s">
         <v>89</v>
       </c>
       <c r="G27"/>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="23">
         <v>31011604</v>
       </c>
       <c r="E28"/>
       <c r="G28"/>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:8">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="23">
         <v>31011605</v>
       </c>
       <c r="E29"/>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="12" t="s">
         <v>94</v>
       </c>
       <c r="G29"/>
-      <c r="H29" s="17" t="s">
+      <c r="H29" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:8">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="23">
         <v>31011606</v>
       </c>
       <c r="E30"/>
-      <c r="F30" t="s">
+      <c r="F30" s="34" t="s">
         <v>97</v>
       </c>
       <c r="G30"/>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="19" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="23">
         <v>31011607</v>
       </c>
       <c r="E31"/>
-      <c r="F31" t="s">
+      <c r="F31" s="34" t="s">
         <v>100</v>
       </c>
       <c r="G31"/>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:8">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="23">
         <v>31011608</v>
       </c>
       <c r="E32"/>
-      <c r="F32" t="s">
+      <c r="F32" s="34" t="s">
         <v>103</v>
       </c>
       <c r="G32"/>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:8">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="27">
         <v>31011609</v>
       </c>
       <c r="E33"/>
-      <c r="F33" t="s">
+      <c r="F33" s="34" t="s">
         <v>106</v>
       </c>
       <c r="G33"/>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:8">
-      <c r="A34" s="26"/>
+      <c r="A34" s="28"/>
       <c r="E34"/>
-      <c r="F34" t="s">
+      <c r="F34" s="34" t="s">
         <v>108</v>
       </c>
       <c r="G34"/>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:8">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="30">
         <v>310117</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
       <c r="E35"/>
-      <c r="F35" t="s">
+      <c r="F35" s="35" t="s">
         <v>111</v>
       </c>
       <c r="G35"/>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="19" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:8">
-      <c r="A36" s="26"/>
+      <c r="A36" s="28"/>
       <c r="E36"/>
       <c r="G36"/>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:8">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="30">
         <v>310118</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
-      <c r="H37" s="17" t="s">
+      <c r="H37" s="19" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:8">
-      <c r="A38" s="26"/>
+      <c r="A38" s="28"/>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
-      <c r="H38" s="17" t="s">
+      <c r="H38" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:8">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="30">
         <v>310120</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
-      <c r="H39" s="17" t="s">
+      <c r="H39" s="19" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:8">
-      <c r="A40" s="26"/>
+      <c r="A40" s="28"/>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
-      <c r="H40" s="17" t="s">
+      <c r="H40" s="36" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:8">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="30">
         <v>310151</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
-      <c r="H41" s="31"/>
+      <c r="H41" s="37"/>
     </row>
     <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="32"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="34"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/static/企业信息导入模板.xlsx
+++ b/static/企业信息导入模板.xlsx
@@ -475,10 +475,46 @@
     <t>经营状态</t>
   </si>
   <si>
-    <t>经营区域</t>
-  </si>
-  <si>
-    <t>经营地地址</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经营区域</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经营地地址</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
     <t>经营地址经度</t>
@@ -563,6 +599,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>管理机构</t>
     </r>
     <r>
@@ -931,10 +973,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="hh:mm"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -974,39 +1016,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1020,7 +1031,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1033,17 +1068,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1053,8 +1113,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1078,30 +1139,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1109,14 +1159,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1159,13 +1201,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,169 +1363,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,50 +1660,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1696,6 +1694,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1711,11 +1718,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1727,10 +1769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1739,138 +1781,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1910,9 +1952,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1928,9 +1967,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1977,9 +2013,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
@@ -2340,14 +2373,14 @@
   <sheetPr/>
   <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="42" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="39" customWidth="1"/>
     <col min="3" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
@@ -2375,95 +2408,95 @@
     <col min="30" max="30" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="1" ht="16.5" spans="1:30">
-      <c r="A1" s="43" t="s">
+    <row r="1" s="38" customFormat="1" ht="16.5" spans="1:30">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="45" t="s">
+      <c r="V1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="W1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="45" t="s">
+      <c r="X1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="45" t="s">
+      <c r="Z1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="45" t="s">
+      <c r="AA1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="45" t="s">
+      <c r="AB1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="45" t="s">
+      <c r="AC1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="45" t="s">
+      <c r="AD1" s="42" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2493,8 +2526,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" customHeight="1" outlineLevelCol="7"/>
@@ -2611,213 +2644,213 @@
         <v>38</v>
       </c>
       <c r="G9"/>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>310100</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>31010001</v>
       </c>
       <c r="E10"/>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>42</v>
       </c>
       <c r="G10"/>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="21">
         <v>31010002</v>
       </c>
       <c r="E11"/>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G11"/>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="25">
         <v>31010003</v>
       </c>
       <c r="E12"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>48</v>
       </c>
       <c r="G12"/>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="28"/>
+      <c r="A13" s="26"/>
       <c r="E13"/>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>50</v>
       </c>
       <c r="G13"/>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="28">
         <v>310112</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
       <c r="E14"/>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>53</v>
       </c>
       <c r="G14"/>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="28"/>
+      <c r="A15" s="26"/>
       <c r="E15"/>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>55</v>
       </c>
       <c r="G15"/>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>310113</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>31011301</v>
       </c>
       <c r="E16"/>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>59</v>
       </c>
       <c r="G16"/>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="21">
         <v>31011302</v>
       </c>
       <c r="E17"/>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G17"/>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:8">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="25">
         <v>31011303</v>
       </c>
       <c r="E18"/>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>65</v>
       </c>
       <c r="G18"/>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="28"/>
+      <c r="A19" s="26"/>
       <c r="E19"/>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="31" t="s">
         <v>67</v>
       </c>
       <c r="G19"/>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:8">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="28">
         <v>310114</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:8">
-      <c r="A21" s="28"/>
+      <c r="A21" s="26"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>310115</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>31011501</v>
       </c>
       <c r="E22"/>
@@ -2825,119 +2858,119 @@
         <v>74</v>
       </c>
       <c r="G22"/>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="25">
         <v>31011502</v>
       </c>
       <c r="E23"/>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="32" t="s">
         <v>77</v>
       </c>
       <c r="G23"/>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="28"/>
+      <c r="A24" s="26"/>
       <c r="E24"/>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="32" t="s">
         <v>79</v>
       </c>
       <c r="G24"/>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:8">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <v>310116</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="16">
         <v>31011601</v>
       </c>
       <c r="E25"/>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="32" t="s">
         <v>83</v>
       </c>
       <c r="G25"/>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="21">
         <v>31011602</v>
       </c>
       <c r="E26"/>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="32" t="s">
         <v>86</v>
       </c>
       <c r="G26"/>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="17" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="21">
         <v>31011603</v>
       </c>
       <c r="E27"/>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="33" t="s">
         <v>89</v>
       </c>
       <c r="G27"/>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="21">
         <v>31011604</v>
       </c>
       <c r="E28"/>
       <c r="G28"/>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:8">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="21">
         <v>31011605</v>
       </c>
       <c r="E29"/>
@@ -2945,192 +2978,192 @@
         <v>94</v>
       </c>
       <c r="G29"/>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:8">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="21">
         <v>31011606</v>
       </c>
       <c r="E30"/>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="32" t="s">
         <v>97</v>
       </c>
       <c r="G30"/>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="21">
         <v>31011607</v>
       </c>
       <c r="E31"/>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="32" t="s">
         <v>100</v>
       </c>
       <c r="G31"/>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:8">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="21">
         <v>31011608</v>
       </c>
       <c r="E32"/>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="32" t="s">
         <v>103</v>
       </c>
       <c r="G32"/>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="17" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:8">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="25">
         <v>31011609</v>
       </c>
       <c r="E33"/>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="32" t="s">
         <v>106</v>
       </c>
       <c r="G33"/>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:8">
-      <c r="A34" s="28"/>
+      <c r="A34" s="26"/>
       <c r="E34"/>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="32" t="s">
         <v>108</v>
       </c>
       <c r="G34"/>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:8">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="28">
         <v>310117</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
       <c r="E35"/>
-      <c r="F35" s="35" t="s">
+      <c r="F35" s="33" t="s">
         <v>111</v>
       </c>
       <c r="G35"/>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:8">
-      <c r="A36" s="28"/>
+      <c r="A36" s="26"/>
       <c r="E36"/>
       <c r="G36"/>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:8">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="28">
         <v>310118</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:8">
-      <c r="A38" s="28"/>
+      <c r="A38" s="26"/>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:8">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="28">
         <v>310120</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:8">
-      <c r="A40" s="28"/>
+      <c r="A40" s="26"/>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
-      <c r="H40" s="36" t="s">
+      <c r="H40" s="31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:8">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="28">
         <v>310151</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
-      <c r="H41" s="37"/>
+      <c r="H41" s="34"/>
     </row>
     <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="38"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/static/企业信息导入模板.xlsx
+++ b/static/企业信息导入模板.xlsx
@@ -271,16 +271,17 @@
             <charset val="134"/>
           </rPr>
           <t>编码:说明(填写编码)
-1：品牌维修
-2：综合维修
-3：专项维修
-4：营运车辆维修
-5：事故车维修
-6：配件销售
-7：新车销售
-8：汽车保险
-9：二手车置换
-10：其他(直接填写其他业务范围)</t>
+79：品牌维修
+80：综合维修
+81：专项维修
+82：营运车辆维修
+83：事故车维修
+84：配件销售
+85：新车销售
+86：汽车保险
+87：二手车置换
+有多个以 , 隔开,如
+79,80,81</t>
         </r>
       </text>
     </comment>
@@ -292,11 +293,24 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
+          <t xml:space="preserve">88：其他(如有,直接填写其他业务范围,如:车辆救援,否则不需填写)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t>参照导入说明</t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
   <si>
     <r>
       <rPr>
@@ -547,7 +561,7 @@
     <t>经营负责人邮箱</t>
   </si>
   <si>
-    <t>企业投诉电话</t>
+    <t>业务联系电话</t>
   </si>
   <si>
     <t>营业时间</t>
@@ -596,6 +610,9 @@
   </si>
   <si>
     <t>企业主要业务范围</t>
+  </si>
+  <si>
+    <t>其他主要业务范围</t>
   </si>
   <si>
     <r>
@@ -731,7 +748,7 @@
     <t>外资</t>
   </si>
   <si>
-    <t>1：品牌维修</t>
+    <t>79：品牌维修</t>
   </si>
   <si>
     <t>一类:48:小型车辆维修</t>
@@ -740,7 +757,7 @@
     <t>西区</t>
   </si>
   <si>
-    <t>2：综合维修</t>
+    <t>80：综合维修</t>
   </si>
   <si>
     <t>一类:49:大、中型客车维修</t>
@@ -749,13 +766,13 @@
     <t>东区</t>
   </si>
   <si>
-    <t>3：专项维修</t>
+    <t>81：专项维修</t>
   </si>
   <si>
     <t>一类:50:大、中型货车维修</t>
   </si>
   <si>
-    <t>4：营运车辆维修</t>
+    <t>82：营运车辆维修</t>
   </si>
   <si>
     <t>一类:51:危险货物运输车辆维修</t>
@@ -764,13 +781,13 @@
     <t>闵行区</t>
   </si>
   <si>
-    <t>5：事故车维修</t>
+    <t>83：事故车维修</t>
   </si>
   <si>
     <t>一类:52:电动（油电混合）汽车维修</t>
   </si>
   <si>
-    <t>6：配件销售</t>
+    <t>84：配件销售</t>
   </si>
   <si>
     <t>一类:53:燃气汽车维修</t>
@@ -782,7 +799,7 @@
     <t>罗店站区市属</t>
   </si>
   <si>
-    <t>7：新车销售</t>
+    <t>85：新车销售</t>
   </si>
   <si>
     <t>二类:54:小型车辆维修</t>
@@ -791,7 +808,7 @@
     <t>罗店镇月浦镇</t>
   </si>
   <si>
-    <t>8：汽车保险</t>
+    <t>86：汽车保险</t>
   </si>
   <si>
     <t>二类:55:大、中型客车维修</t>
@@ -800,13 +817,13 @@
     <t>杨行站区市属</t>
   </si>
   <si>
-    <t>9：二手车置换</t>
+    <t>87：二手车置换</t>
   </si>
   <si>
     <t>二类:56:大、中型货车维修</t>
   </si>
   <si>
-    <t>10：其他(直接填写其他业务范围)</t>
+    <t>88：其他(直接填写其他业务范围)</t>
   </si>
   <si>
     <t>二类:57:电动（油电混合）汽车维修</t>
@@ -973,10 +990,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="hh:mm"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -1017,14 +1034,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1039,38 +1063,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1078,21 +1071,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1107,7 +1085,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,9 +1129,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1138,30 +1144,41 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1201,7 +1218,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,7 +1284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,7 +1296,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,31 +1326,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,115 +1392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,6 +1677,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1703,32 +1744,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1744,20 +1764,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1769,10 +1786,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1781,134 +1798,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2371,10 +2388,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -2403,12 +2420,12 @@
     <col min="25" max="25" width="11.25" customWidth="1"/>
     <col min="26" max="26" width="19.125" customWidth="1"/>
     <col min="27" max="27" width="28.375" customWidth="1"/>
-    <col min="28" max="28" width="15.75" customWidth="1"/>
-    <col min="29" max="29" width="8.875" customWidth="1"/>
-    <col min="30" max="30" width="10.375" customWidth="1"/>
+    <col min="28" max="29" width="15.75" customWidth="1"/>
+    <col min="30" max="30" width="8.875" customWidth="1"/>
+    <col min="31" max="31" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="38" customFormat="1" ht="16.5" spans="1:30">
+    <row r="1" s="38" customFormat="1" ht="16.5" spans="1:31">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -2498,6 +2515,9 @@
       </c>
       <c r="AD1" s="42" t="s">
         <v>29</v>
+      </c>
+      <c r="AE1" s="42" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2526,8 +2546,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" customHeight="1" outlineLevelCol="7"/>
@@ -2545,7 +2565,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2556,7 +2576,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2567,7 +2587,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2578,7 +2598,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2589,7 +2609,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2600,7 +2620,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2620,7 +2640,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2632,94 +2652,94 @@
     </row>
     <row r="9" customHeight="1" spans="1:8">
       <c r="A9" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9"/>
       <c r="F9" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9"/>
       <c r="H9" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="14">
         <v>310100</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="16">
         <v>31010001</v>
       </c>
       <c r="E10"/>
       <c r="F10" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10"/>
       <c r="H10" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="21">
         <v>31010002</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11"/>
       <c r="H11" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="25">
         <v>31010003</v>
       </c>
       <c r="E12"/>
       <c r="F12" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12"/>
       <c r="H12" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:8">
       <c r="A13" s="26"/>
       <c r="E13"/>
       <c r="F13" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13"/>
       <c r="H13" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:8">
       <c r="A14" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="28">
         <v>310112</v>
@@ -2728,96 +2748,96 @@
       <c r="D14" s="30"/>
       <c r="E14"/>
       <c r="F14" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14"/>
       <c r="H14" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:8">
       <c r="A15" s="26"/>
       <c r="E15"/>
       <c r="F15" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15"/>
       <c r="H15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:8">
       <c r="A16" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="14">
         <v>310113</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="16">
         <v>31011301</v>
       </c>
       <c r="E16"/>
       <c r="F16" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16"/>
       <c r="H16" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
       <c r="C17" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="21">
         <v>31011302</v>
       </c>
       <c r="E17"/>
       <c r="F17" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G17"/>
       <c r="H17" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="22"/>
       <c r="B18" s="23"/>
       <c r="C18" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="25">
         <v>31011303</v>
       </c>
       <c r="E18"/>
       <c r="F18" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G18"/>
       <c r="H18" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="26"/>
       <c r="E19"/>
       <c r="F19" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G19"/>
       <c r="H19" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="28">
         <v>310114</v>
@@ -2828,7 +2848,7 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:8">
@@ -2837,123 +2857,123 @@
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" s="14">
         <v>310115</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="16">
         <v>31011501</v>
       </c>
       <c r="E22"/>
       <c r="F22" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G22"/>
       <c r="H22" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
       <c r="C23" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="25">
         <v>31011502</v>
       </c>
       <c r="E23"/>
       <c r="F23" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23"/>
       <c r="H23" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="26"/>
       <c r="E24"/>
       <c r="F24" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24"/>
       <c r="H24" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:8">
       <c r="A25" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B25" s="14">
         <v>310116</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="16">
         <v>31011601</v>
       </c>
       <c r="E25"/>
       <c r="F25" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G25"/>
       <c r="H25" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:8">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="21">
         <v>31011602</v>
       </c>
       <c r="E26"/>
       <c r="F26" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G26"/>
       <c r="H26" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:8">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="21">
         <v>31011603</v>
       </c>
       <c r="E27"/>
       <c r="F27" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G27"/>
       <c r="H27" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:8">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="21">
         <v>31011604</v>
@@ -2961,113 +2981,113 @@
       <c r="E28"/>
       <c r="G28"/>
       <c r="H28" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:8">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="21">
         <v>31011605</v>
       </c>
       <c r="E29"/>
       <c r="F29" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G29"/>
       <c r="H29" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:8">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="21">
         <v>31011606</v>
       </c>
       <c r="E30"/>
       <c r="F30" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G30"/>
       <c r="H30" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:8">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="21">
         <v>31011607</v>
       </c>
       <c r="E31"/>
       <c r="F31" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G31"/>
       <c r="H31" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:8">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="21">
         <v>31011608</v>
       </c>
       <c r="E32"/>
       <c r="F32" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G32"/>
       <c r="H32" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:8">
       <c r="A33" s="22"/>
       <c r="B33" s="23"/>
       <c r="C33" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="25">
         <v>31011609</v>
       </c>
       <c r="E33"/>
       <c r="F33" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G33"/>
       <c r="H33" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:8">
       <c r="A34" s="26"/>
       <c r="E34"/>
       <c r="F34" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G34"/>
       <c r="H34" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:8">
       <c r="A35" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B35" s="28">
         <v>310117</v>
@@ -3076,11 +3096,11 @@
       <c r="D35" s="30"/>
       <c r="E35"/>
       <c r="F35" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G35"/>
       <c r="H35" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:8">
@@ -3088,12 +3108,12 @@
       <c r="E36"/>
       <c r="G36"/>
       <c r="H36" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:8">
       <c r="A37" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B37" s="28">
         <v>310118</v>
@@ -3104,7 +3124,7 @@
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:8">
@@ -3113,12 +3133,12 @@
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:8">
       <c r="A39" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B39" s="28">
         <v>310120</v>
@@ -3129,7 +3149,7 @@
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:8">
@@ -3138,12 +3158,12 @@
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40" s="31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:8">
       <c r="A41" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B41" s="28">
         <v>310151</v>
